--- a/biology/Médecine/Maurice_Hoffmann/Maurice_Hoffmann.xlsx
+++ b/biology/Médecine/Maurice_Hoffmann/Maurice_Hoffmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Hoffmann, ou Moritz Hoffmann, est un médecin brandebourgeois, né à Fürstenwalde (Brandebourg) en 1621, et décédé en 1698[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Hoffmann, ou Moritz Hoffmann, est un médecin brandebourgeois, né à Fürstenwalde (Brandebourg) en 1621, et décédé en 1698,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la mort de ses parents, vers 1638, il est éduqué par son oncle maternel, médecin à Altdorf où il fait ses humanités.
 En 1641, il étudie la médecine à Padoue. Reçu docteur en 1645, il obtient la chaire d'anatomie et de chirurgie de l'Université d'Altdorf en 1648.  En 1653, il dirige le département de botanique.
-Médecin estimé, très habile en anatomie et en botanique, il est le médecin personnel de plusieurs princes d'Allemagne. Il meurt d'apoplexie, le 20 avril 1698, à l'âge de 76 ans[2].
+Médecin estimé, très habile en anatomie et en botanique, il est le médecin personnel de plusieurs princes d'Allemagne. Il meurt d'apoplexie, le 20 avril 1698, à l'âge de 76 ans.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'Université d'Altdorf, on lui doit la création d'un amphithéâtre anatomique, d'un laboratoire de chimie et d'un jardin botanique[2]. 
-Selon Thomas Bartholin, alors qu'il était étudiant à Padoue, il découvre fortuitement le canal pancréatique en disséquant un dindon. L'ayant montré à son maître Johann Georg Wirsung (1589-1648) chez qui il logeait, celui-ci le cherche aussitôt chez l'homme, et le trouve en le  nommant canal de Wirsung[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'Université d'Altdorf, on lui doit la création d'un amphithéâtre anatomique, d'un laboratoire de chimie et d'un jardin botanique. 
+Selon Thomas Bartholin, alors qu'il était étudiant à Padoue, il découvre fortuitement le canal pancréatique en disséquant un dindon. L'ayant montré à son maître Johann Georg Wirsung (1589-1648) chez qui il logeait, celui-ci le cherche aussitôt chez l'homme, et le trouve en le  nommant canal de Wirsung.
 </t>
         </is>
       </c>
